--- a/EvaluationResults/RQ2+RQ3/3-Simple-gpt4o-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/3-Simple-gpt4o-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FB393-EBCC-584B-A4A6-5A3B105C108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031511EF-C8BC-A24E-B1C4-A1A3C5D2DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1165,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,17 +1193,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,7 +1528,7 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1538,7 +1544,7 @@
     <col min="10" max="10" width="14" style="1"/>
     <col min="11" max="11" width="14" style="8"/>
     <col min="12" max="12" width="14" style="1"/>
-    <col min="13" max="13" width="14" style="11"/>
+    <col min="13" max="13" width="14" style="13"/>
     <col min="14" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
@@ -1567,21 +1573,21 @@
       <c r="H1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" s="2">
@@ -1622,7 +1628,7 @@
         <f>G2-K2</f>
         <v>125</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="11"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -1664,7 +1670,7 @@
         <f t="shared" ref="L3:L66" si="1">G3-K3</f>
         <v>99</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="11"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -1706,7 +1712,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="11"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="34">
@@ -1748,7 +1754,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="11"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -1790,7 +1796,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="11"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -1832,7 +1838,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="11"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -1874,7 +1880,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="11"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="34">
@@ -1916,7 +1922,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="11"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="34">
@@ -1958,7 +1964,7 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="11"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="34">
@@ -2000,7 +2006,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="11"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" ht="34">
@@ -2042,7 +2048,7 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="11"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="17">
@@ -2084,7 +2090,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="11"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="34">
@@ -2126,7 +2132,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="11"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="34">
@@ -2168,7 +2174,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="11"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="34">
@@ -2210,7 +2216,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="11"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="17">
@@ -2252,7 +2258,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="11"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="17">
@@ -2294,7 +2300,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="11"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="34">
@@ -2336,7 +2342,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="11"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="17">
@@ -2378,7 +2384,7 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="11"/>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1">
@@ -2420,7 +2426,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="11"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="34">
@@ -2462,7 +2468,7 @@
         <f t="shared" si="1"/>
         <v>513</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="11"/>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="34">
@@ -2504,7 +2510,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="11"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="34">
@@ -2546,7 +2552,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="11"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="34">
@@ -2588,7 +2594,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="11"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="34">
@@ -2630,7 +2636,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="11"/>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="34">
@@ -2672,7 +2678,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="11"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="102">
@@ -2714,7 +2720,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="M28" s="11"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1">
@@ -2756,7 +2762,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="11"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="119">
@@ -2798,7 +2804,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="11"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="130" customHeight="1">
@@ -2840,7 +2846,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="11"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="85" customHeight="1">
@@ -2882,7 +2888,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="M32" s="11"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="80" customHeight="1">
@@ -2924,7 +2930,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="11"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="109" customHeight="1">
@@ -2966,7 +2972,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="11"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="34">
@@ -3008,7 +3014,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="11"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="115" customHeight="1">
@@ -3050,7 +3056,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="11"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="185" customHeight="1">
@@ -3092,7 +3098,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="M37" s="11"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="51">
@@ -3134,7 +3140,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="M38" s="11"/>
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="68" customHeight="1">
@@ -3176,7 +3182,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="11"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" ht="140" customHeight="1">
@@ -3218,7 +3224,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="11"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" ht="51">
@@ -3260,7 +3266,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="M41" s="11"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="51">
@@ -3302,7 +3308,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="M42" s="11"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" ht="46" customHeight="1">
@@ -3344,7 +3350,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="11"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="76" customHeight="1">
@@ -3386,7 +3392,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M44" s="9"/>
+      <c r="M44" s="11"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" ht="102">
@@ -3428,7 +3434,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M45" s="9"/>
+      <c r="M45" s="11"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="119">
@@ -3470,7 +3476,7 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="11"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" ht="95" customHeight="1">
@@ -3512,7 +3518,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="11"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" ht="34">
@@ -3554,7 +3560,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M48" s="9"/>
+      <c r="M48" s="11"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" ht="66" customHeight="1">
@@ -3596,7 +3602,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="11"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" ht="93" customHeight="1">
@@ -3638,7 +3644,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="M50" s="9"/>
+      <c r="M50" s="11"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" ht="34">
@@ -3680,7 +3686,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M51" s="9"/>
+      <c r="M51" s="11"/>
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" ht="58" customHeight="1">
@@ -3722,7 +3728,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M52" s="9"/>
+      <c r="M52" s="11"/>
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" ht="34">
@@ -3764,7 +3770,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="11"/>
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" ht="67" customHeight="1">
@@ -3806,7 +3812,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="11"/>
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:16" ht="117" customHeight="1">
@@ -3848,7 +3854,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M55" s="9"/>
+      <c r="M55" s="11"/>
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" ht="55" customHeight="1">
@@ -3890,7 +3896,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M56" s="10"/>
+      <c r="M56" s="12"/>
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" ht="66" customHeight="1">
@@ -3932,7 +3938,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M57" s="9"/>
+      <c r="M57" s="11"/>
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="1:16" ht="93" customHeight="1">
@@ -3974,7 +3980,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M58" s="9"/>
+      <c r="M58" s="11"/>
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16" ht="75" customHeight="1">
@@ -4016,7 +4022,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M59" s="9"/>
+      <c r="M59" s="11"/>
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="51">
@@ -4058,7 +4064,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M60" s="9"/>
+      <c r="M60" s="11"/>
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" ht="65" customHeight="1">
@@ -4100,7 +4106,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="M61" s="9"/>
+      <c r="M61" s="11"/>
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" ht="51">
@@ -4142,7 +4148,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="11"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="1:16" ht="94" customHeight="1">
@@ -4184,7 +4190,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M63" s="9"/>
+      <c r="M63" s="11"/>
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" ht="89" customHeight="1">
@@ -4226,7 +4232,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M64" s="9"/>
+      <c r="M64" s="11"/>
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="64" customHeight="1">
@@ -4268,7 +4274,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M65" s="9"/>
+      <c r="M65" s="11"/>
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16" ht="29" customHeight="1">
@@ -4310,7 +4316,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M66" s="9"/>
+      <c r="M66" s="11"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16" ht="73" customHeight="1">
@@ -4352,7 +4358,7 @@
         <f t="shared" ref="L67:L111" si="4">G67-K67</f>
         <v>7</v>
       </c>
-      <c r="M67" s="9"/>
+      <c r="M67" s="11"/>
       <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" ht="34">
@@ -4394,7 +4400,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="M68" s="9"/>
+      <c r="M68" s="11"/>
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16" ht="34">
@@ -4436,7 +4442,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="M69" s="9"/>
+      <c r="M69" s="11"/>
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" ht="89" customHeight="1">
@@ -4478,7 +4484,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M70" s="9"/>
+      <c r="M70" s="11"/>
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" ht="51">
@@ -4520,7 +4526,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M71" s="9"/>
+      <c r="M71" s="11"/>
       <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" ht="34">
@@ -4562,7 +4568,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M72" s="9"/>
+      <c r="M72" s="11"/>
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" ht="61" customHeight="1">
@@ -4604,7 +4610,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M73" s="9"/>
+      <c r="M73" s="11"/>
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="51">
@@ -4646,7 +4652,7 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="M74" s="9"/>
+      <c r="M74" s="11"/>
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" ht="51">
@@ -4688,7 +4694,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="M75" s="9"/>
+      <c r="M75" s="11"/>
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="58" customHeight="1">
@@ -4730,7 +4736,7 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="M76" s="9"/>
+      <c r="M76" s="11"/>
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="34">
@@ -4772,7 +4778,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M77" s="9"/>
+      <c r="M77" s="11"/>
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" ht="102" customHeight="1">
@@ -4814,7 +4820,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M78" s="9"/>
+      <c r="M78" s="11"/>
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" ht="34">
@@ -4856,7 +4862,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M79" s="9"/>
+      <c r="M79" s="11"/>
       <c r="P79" s="2"/>
     </row>
     <row r="80" spans="1:16" ht="17">
@@ -4898,7 +4904,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M80" s="9"/>
+      <c r="M80" s="11"/>
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" ht="83" customHeight="1">
@@ -4940,7 +4946,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M81" s="9"/>
+      <c r="M81" s="11"/>
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:16" ht="76" customHeight="1">
@@ -4982,7 +4988,7 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="M82" s="9"/>
+      <c r="M82" s="11"/>
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" ht="72" customHeight="1">
@@ -5024,7 +5030,7 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="M83" s="9"/>
+      <c r="M83" s="11"/>
       <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:16" ht="72" customHeight="1">
@@ -5066,7 +5072,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M84" s="9"/>
+      <c r="M84" s="11"/>
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" ht="90" customHeight="1">
@@ -5108,7 +5114,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="M85" s="9"/>
+      <c r="M85" s="11"/>
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" ht="17">
@@ -5150,7 +5156,7 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="M86" s="9"/>
+      <c r="M86" s="11"/>
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16" ht="81" customHeight="1">
@@ -5192,7 +5198,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="M87" s="9"/>
+      <c r="M87" s="11"/>
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" ht="34">
@@ -5234,7 +5240,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="M88" s="9"/>
+      <c r="M88" s="11"/>
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" ht="34">
@@ -5276,7 +5282,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="M89" s="9"/>
+      <c r="M89" s="11"/>
       <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" ht="68">
@@ -5318,7 +5324,7 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="M90" s="9"/>
+      <c r="M90" s="11"/>
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16" ht="51">
@@ -5360,7 +5366,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M91" s="9"/>
+      <c r="M91" s="11"/>
       <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16" ht="51">
@@ -5402,7 +5408,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="M92" s="9"/>
+      <c r="M92" s="11"/>
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:16" ht="34">
@@ -5444,7 +5450,7 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="M93" s="9"/>
+      <c r="M93" s="11"/>
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16" ht="34">
@@ -5486,7 +5492,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M94" s="9"/>
+      <c r="M94" s="11"/>
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" ht="85">
@@ -5528,7 +5534,7 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="M95" s="9"/>
+      <c r="M95" s="11"/>
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" ht="96" customHeight="1">
@@ -5570,7 +5576,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="M96" s="9"/>
+      <c r="M96" s="11"/>
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" ht="34">
@@ -5612,7 +5618,7 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="M97" s="9"/>
+      <c r="M97" s="11"/>
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" ht="71" customHeight="1">
@@ -5654,7 +5660,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M98" s="9"/>
+      <c r="M98" s="11"/>
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" ht="73" customHeight="1">
@@ -5696,7 +5702,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="M99" s="9"/>
+      <c r="M99" s="11"/>
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" ht="51">
@@ -5738,7 +5744,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M100" s="9"/>
+      <c r="M100" s="11"/>
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16" ht="51">
@@ -5780,7 +5786,7 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="M101" s="9"/>
+      <c r="M101" s="11"/>
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16" ht="64" customHeight="1">
@@ -5822,7 +5828,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M102" s="9"/>
+      <c r="M102" s="11"/>
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" ht="34">
@@ -5864,7 +5870,7 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="M103" s="9"/>
+      <c r="M103" s="11"/>
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:16" ht="78" customHeight="1">
@@ -5905,7 +5911,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M104" s="9"/>
+      <c r="M104" s="11"/>
       <c r="P104" s="2"/>
     </row>
     <row r="105" spans="1:16" ht="34">
@@ -5946,7 +5952,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="M105" s="9"/>
+      <c r="M105" s="11"/>
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" ht="51">
@@ -5988,7 +5994,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M106" s="9"/>
+      <c r="M106" s="11"/>
       <c r="P106" s="2"/>
     </row>
     <row r="107" spans="1:16" ht="63" customHeight="1">
@@ -6030,7 +6036,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="M107" s="9"/>
+      <c r="M107" s="11"/>
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" ht="75" customHeight="1">
@@ -6072,7 +6078,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="M108" s="9"/>
+      <c r="M108" s="11"/>
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" ht="71" customHeight="1">
@@ -6114,7 +6120,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="M109" s="9"/>
+      <c r="M109" s="11"/>
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" ht="34">
@@ -6156,7 +6162,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M110" s="9"/>
+      <c r="M110" s="11"/>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" ht="34">
@@ -6198,7 +6204,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="M111" s="9"/>
+      <c r="M111" s="11"/>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" ht="18" customHeight="1">
@@ -6245,7 +6251,7 @@
         <f>I112/(I112+K112)</f>
         <v>0.52617801047120416</v>
       </c>
-      <c r="M116" s="8"/>
+      <c r="M116" s="14"/>
     </row>
     <row r="117" spans="9:13" ht="18" customHeight="1">
       <c r="I117" s="8" t="s">
@@ -6255,7 +6261,7 @@
         <f>I112/(I112+J112)</f>
         <v>0.65259740259740262</v>
       </c>
-      <c r="M117" s="8"/>
+      <c r="M117" s="14"/>
     </row>
     <row r="118" spans="9:13" ht="18" customHeight="1">
       <c r="I118" s="8" t="s">
@@ -6265,7 +6271,7 @@
         <f>2*((J116*J117)/(J116+J117))</f>
         <v>0.58260869565217388</v>
       </c>
-      <c r="M118" s="8"/>
+      <c r="M118" s="14"/>
     </row>
     <row r="119" spans="9:13" ht="18" customHeight="1">
       <c r="I119" s="8" t="s">
@@ -6275,7 +6281,7 @@
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
         <v>0.93478260869565222</v>
       </c>
-      <c r="M119" s="8"/>
+      <c r="M119" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L119">
